--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3248089.900767899</v>
+        <v>-3249694.318694231</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12870947.582331</v>
+        <v>12870947.58233099</v>
       </c>
     </row>
     <row r="8">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.12881381575107</v>
+        <v>254.9455259660928</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232953</v>
+        <v>177.7198913990974</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358285</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212904</v>
+        <v>17.6552833021289</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014341</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727473</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810814</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247971</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092811</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801331</v>
+        <v>29.85676475801318</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>17.28089669599612</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577392</v>
+        <v>8.062435227577264</v>
       </c>
       <c r="H12" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307231</v>
+        <v>16.16737725307218</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204926</v>
+        <v>66.35951750204913</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843945</v>
+        <v>98.05485807843932</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520376</v>
+        <v>105.0122714520375</v>
       </c>
       <c r="W12" t="n">
-        <v>123.906667463532</v>
+        <v>123.9066674635318</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608984</v>
+        <v>156.8233332536521</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.7058416981844</v>
+        <v>77.8943800799166</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454967</v>
+        <v>52.04366448454954</v>
       </c>
       <c r="C13" t="n">
-        <v>39.4585054012402</v>
+        <v>39.45850540124007</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082472</v>
+        <v>20.8271573208246</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918154</v>
+        <v>18.64564694918141</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554361</v>
+        <v>17.63273232554349</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219395</v>
+        <v>38.95117859219382</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403483</v>
+        <v>23.3120168340347</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015233</v>
+        <v>74.4183107301522</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569137</v>
+        <v>94.81001934569125</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371645</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164952</v>
+        <v>97.92133969164939</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470716</v>
+        <v>90.79633765470703</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736199</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274268</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212904</v>
+        <v>17.65528330212897</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014341</v>
+        <v>83.09443458014334</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078954</v>
+        <v>22.43990668729456</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727473</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200254</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>59.30571362698754</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247971</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092811</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725105</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801331</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599625</v>
+        <v>17.28089669599618</v>
       </c>
       <c r="G15" t="n">
-        <v>135.850750924965</v>
+        <v>86.90109897513855</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>42.00898821476086</v>
+        <v>16.16737725307224</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204926</v>
+        <v>66.35951750204919</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843945</v>
+        <v>98.05485807843938</v>
       </c>
       <c r="V15" t="n">
         <v>105.0122714520376</v>
       </c>
       <c r="W15" t="n">
-        <v>123.906667463532</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608984</v>
+        <v>77.98466950608977</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>77.89438007991666</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454967</v>
+        <v>52.04366448454959</v>
       </c>
       <c r="C16" t="n">
-        <v>39.4585054012402</v>
+        <v>39.45850540124013</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082472</v>
+        <v>20.82715732082465</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918154</v>
+        <v>18.64564694918147</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554361</v>
+        <v>17.63273232554354</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219395</v>
+        <v>38.95117859219388</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403483</v>
+        <v>23.31201683403476</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015233</v>
+        <v>74.41831073015226</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569137</v>
+        <v>94.8100193456913</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371645</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164952</v>
+        <v>97.92133969164945</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470716</v>
+        <v>90.79633765470709</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064065</v>
+        <v>139.8053726064059</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D17" t="n">
-        <v>111.7545725636089</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151877</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G17" t="n">
-        <v>169.584297176142</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774041</v>
+        <v>67.97353966774052</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148208937</v>
+        <v>8.193986148209051</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W17" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213966</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989795</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>36.26783762258385</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>246.5773955455733</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.7920863791749</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1143838566533</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266753962</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064078</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D20" t="n">
-        <v>111.7545725636089</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151877</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G20" t="n">
-        <v>169.584297176142</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H20" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148208937</v>
+        <v>8.193986148209051</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W20" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989795</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.92605653375849</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>123.6208150261126</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>8.766514103845566</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.7920863791752</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.3222974774781</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266753962</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064065</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D23" t="n">
-        <v>111.7545725636089</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151877</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G23" t="n">
         <v>169.5842971761421</v>
       </c>
       <c r="H23" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.19398614820895</v>
+        <v>8.193986148209051</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W23" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X23" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989795</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>64.31082490015271</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>15.72547493066026</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.3222974774781</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266753962</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.7920863791751</v>
+        <v>139.7920863791748</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F26" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735297</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H26" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983027</v>
+        <v>30.30344563983055</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784464</v>
+        <v>95.74259691784492</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018093</v>
+        <v>51.39303029018122</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862933</v>
+        <v>57.56834562862961</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495234</v>
+        <v>99.8021059351846</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0021208259492</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369747</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>20.71059756527861</v>
+        <v>20.7105975652789</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>28.81553959077354</v>
+        <v>28.81553959077382</v>
       </c>
       <c r="T27" t="n">
-        <v>194.1478331994369</v>
+        <v>79.00767983975076</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8431737758271</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897389</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012332</v>
+        <v>136.5548298012335</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379107</v>
+        <v>90.63283184379135</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.54254241761795</v>
+        <v>90.54254241761824</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225089</v>
+        <v>64.69182682225117</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894143</v>
+        <v>52.10666773894171</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852595</v>
+        <v>33.47531965852623</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688276</v>
+        <v>31.29380928688305</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324484</v>
+        <v>30.28089466324512</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989517</v>
+        <v>51.59934092989545</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173605</v>
+        <v>35.96017917173634</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338133</v>
+        <v>2.674752405338417</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969179</v>
+        <v>5.881918465969463</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785355</v>
+        <v>87.06647306785383</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748657</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293507</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735297</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983026</v>
+        <v>30.30344563983048</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784464</v>
+        <v>95.74259691784485</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018093</v>
+        <v>51.39303029018114</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862933</v>
+        <v>57.56834562862954</v>
       </c>
       <c r="D30" t="n">
-        <v>64.12674146819226</v>
+        <v>99.80210593518505</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571454</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369747</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527861</v>
+        <v>20.71059756527883</v>
       </c>
       <c r="H30" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077354</v>
+        <v>28.81553959077375</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975048</v>
+        <v>79.00767983975069</v>
       </c>
       <c r="U30" t="n">
-        <v>110.7030204161407</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V30" t="n">
-        <v>117.6604337897389</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W30" t="n">
-        <v>136.5548298012332</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>90.63283184379128</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761795</v>
+        <v>90.54254241761817</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225089</v>
+        <v>64.6918268222511</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894143</v>
+        <v>52.10666773894164</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852595</v>
+        <v>33.47531965852616</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688276</v>
+        <v>31.29380928688298</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324484</v>
+        <v>30.28089466324505</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989517</v>
+        <v>51.59934092989538</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173605</v>
+        <v>35.96017917173626</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338133</v>
+        <v>2.674752405338346</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969179</v>
+        <v>5.881918465969392</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785355</v>
+        <v>87.06647306785376</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293507</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F32" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735297</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H32" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983029</v>
+        <v>30.30344563983049</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784466</v>
+        <v>95.74259691784486</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>51.39303029018116</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56834562862936</v>
+        <v>57.56834562862956</v>
       </c>
       <c r="D33" t="n">
-        <v>32.30491220495237</v>
+        <v>32.30491220495257</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571456</v>
+        <v>42.50492709571476</v>
       </c>
       <c r="F33" t="n">
-        <v>29.9290590336975</v>
+        <v>29.9290590336977</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527864</v>
+        <v>20.71059756527884</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077356</v>
+        <v>28.81553959077376</v>
       </c>
       <c r="T33" t="n">
-        <v>194.1478331994369</v>
+        <v>79.00767983975071</v>
       </c>
       <c r="U33" t="n">
-        <v>110.7030204161407</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V33" t="n">
-        <v>117.6604337897389</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5548298012332</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>105.132972788153</v>
+        <v>158.1300255740237</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761798</v>
+        <v>90.54254241761818</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225092</v>
+        <v>64.69182682225112</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894145</v>
+        <v>52.10666773894165</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852598</v>
+        <v>33.47531965852617</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688279</v>
+        <v>31.29380928688299</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324487</v>
+        <v>30.28089466324506</v>
       </c>
       <c r="G34" t="n">
-        <v>51.5993409298952</v>
+        <v>51.5993409298954</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173608</v>
+        <v>35.96017917173628</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338161</v>
+        <v>2.67475240533836</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969207</v>
+        <v>5.881918465969406</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785358</v>
+        <v>87.06647306785378</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748657</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293508</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111304</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683328</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199116</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808659</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246425</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.1649671529328</v>
+        <v>31.16496715293312</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177847</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650628</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261188</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037034</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5.885685723476895</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>177.8272174637449</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>98.06847306712571</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.48612903758781</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>62.48612903758618</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990728814</v>
+        <v>2.640846990729127</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220194</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147782</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424082</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336686966</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683327</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893612</v>
+        <v>186.9185576893615</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808659</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246419</v>
+        <v>90.94452067246448</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293275</v>
+        <v>31.16496715293303</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177847</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650628</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261188</v>
+        <v>149.7736126261191</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>26.35309195017219</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.885685723476838</v>
+        <v>5.885685723477122</v>
       </c>
       <c r="V39" t="n">
-        <v>12.84309909707503</v>
+        <v>12.84309909707531</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856965</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>140.5552332090736</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>62.48612903758661</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990728758</v>
+        <v>2.640846990729042</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220188</v>
+        <v>66.29327848220217</v>
       </c>
       <c r="V40" t="n">
-        <v>94.66628430906553</v>
+        <v>32.18015527147804</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424076</v>
+        <v>66.56551028424104</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686909</v>
+        <v>5.752167336687194</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683327</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893612</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808659</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246419</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293275</v>
+        <v>31.16496715293311</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177847</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650628</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261188</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>79.85534169794641</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970754</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856973</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>140.5552332090731</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>62.48612903758618</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728758</v>
+        <v>2.640846990729127</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7794075197899</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147776</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424076</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686909</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683327</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893612</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808658</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246419</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293274</v>
+        <v>31.16496715293311</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177847</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650628</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261188</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.402417015271834</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970754</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856936</v>
+        <v>31.73749510856973</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>140.5552332090731</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>62.48612903758618</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990728758</v>
+        <v>2.640846990729127</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220188</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V46" t="n">
-        <v>94.66628430906584</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424076</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336686909</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>545.3142384120122</v>
+        <v>704.634789309454</v>
       </c>
       <c r="C11" t="n">
-        <v>545.3142384120122</v>
+        <v>464.7513791340805</v>
       </c>
       <c r="D11" t="n">
-        <v>316.1276465702997</v>
+        <v>285.2363373168103</v>
       </c>
       <c r="E11" t="n">
-        <v>316.1276465702997</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F11" t="n">
-        <v>316.1276465702997</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006807</v>
+        <v>83.71911784006761</v>
       </c>
       <c r="K11" t="n">
         <v>217.1760266634142</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838413</v>
+        <v>419.6428849838417</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965341</v>
+        <v>676.5957134965342</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893067</v>
+        <v>942.3201157893069</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569999</v>
       </c>
       <c r="P11" t="n">
-        <v>1348.169550998293</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q11" t="n">
         <v>1426.359574180212</v>
@@ -5066,25 +5066,25 @@
         <v>1426.359574180212</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683113</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="T11" t="n">
-        <v>1324.592182379937</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="U11" t="n">
-        <v>1324.592182379937</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="V11" t="n">
-        <v>1122.608401801405</v>
+        <v>1206.54217410458</v>
       </c>
       <c r="W11" t="n">
-        <v>1122.608401801405</v>
+        <v>1206.54217410458</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2217503053628</v>
+        <v>962.1555226085378</v>
       </c>
       <c r="Y11" t="n">
-        <v>617.161525094589</v>
+        <v>962.1555226085378</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>506.478834185978</v>
+        <v>407.6723038417265</v>
       </c>
       <c r="C12" t="n">
-        <v>461.104911669889</v>
+        <v>233.2192745605995</v>
       </c>
       <c r="D12" t="n">
-        <v>312.1705020086378</v>
+        <v>84.28486489934824</v>
       </c>
       <c r="E12" t="n">
-        <v>282.0121537682203</v>
+        <v>54.12651665893088</v>
       </c>
       <c r="F12" t="n">
-        <v>135.4775957951053</v>
+        <v>36.67106545085399</v>
       </c>
       <c r="G12" t="n">
-        <v>127.3337218278554</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J12" t="n">
-        <v>42.5812777619736</v>
+        <v>42.58127776197359</v>
       </c>
       <c r="K12" t="n">
         <v>144.7567744385589</v>
@@ -5142,28 +5142,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R12" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S12" t="n">
-        <v>1156.750241916091</v>
+        <v>1210.282618467478</v>
       </c>
       <c r="T12" t="n">
-        <v>1089.720426257456</v>
+        <v>1143.252802808842</v>
       </c>
       <c r="U12" t="n">
-        <v>990.6751150671129</v>
+        <v>1044.2074916185</v>
       </c>
       <c r="V12" t="n">
-        <v>884.6021136004082</v>
+        <v>938.1344901517951</v>
       </c>
       <c r="W12" t="n">
-        <v>759.4438636372446</v>
+        <v>812.9762401886317</v>
       </c>
       <c r="X12" t="n">
-        <v>680.6714701967499</v>
+        <v>654.5688328617103</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.615064441008</v>
+        <v>575.8876408617946</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.9587444361485</v>
+        <v>188.9587444361478</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732796</v>
+        <v>149.101668273279</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259819</v>
+        <v>128.0641356259814</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086269</v>
+        <v>109.2301488086265</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575453</v>
+        <v>91.41930807575426</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515458</v>
+        <v>52.07468323515444</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J13" t="n">
-        <v>116.9073512249363</v>
+        <v>116.9073512249364</v>
       </c>
       <c r="K13" t="n">
-        <v>259.6404707987732</v>
+        <v>259.6404707987734</v>
       </c>
       <c r="L13" t="n">
-        <v>364.9427814079033</v>
+        <v>371.641362840916</v>
       </c>
       <c r="M13" t="n">
-        <v>548.1309012240309</v>
+        <v>554.8294826570437</v>
       </c>
       <c r="N13" t="n">
-        <v>737.8288782235501</v>
+        <v>744.527459656563</v>
       </c>
       <c r="O13" t="n">
-        <v>902.3901463547611</v>
+        <v>909.0887277877741</v>
       </c>
       <c r="P13" t="n">
-        <v>1042.397671093597</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093597</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.096252526611</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880737</v>
+        <v>973.9262416880722</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792945</v>
+        <v>878.1585453792932</v>
       </c>
       <c r="U13" t="n">
-        <v>718.095463725593</v>
+        <v>718.0954637255918</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847442</v>
+        <v>592.490082284743</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128217</v>
+        <v>432.1520190128205</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798423</v>
+        <v>333.2415748798413</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013502</v>
+        <v>241.5281025013493</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>453.3739279493084</v>
+        <v>598.0344445948692</v>
       </c>
       <c r="C14" t="n">
-        <v>213.4905177739344</v>
+        <v>598.0344445948692</v>
       </c>
       <c r="D14" t="n">
-        <v>213.4905177739344</v>
+        <v>598.0344445948692</v>
       </c>
       <c r="E14" t="n">
-        <v>213.4905177739344</v>
+        <v>598.0344445948692</v>
       </c>
       <c r="F14" t="n">
-        <v>213.4905177739344</v>
+        <v>316.1276465702998</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739344</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006781</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K14" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838412</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M14" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569998</v>
@@ -5309,19 +5309,19 @@
         <v>1324.592182379936</v>
       </c>
       <c r="U14" t="n">
-        <v>1200.012243483072</v>
+        <v>1301.925609968527</v>
       </c>
       <c r="V14" t="n">
-        <v>998.0284629045397</v>
+        <v>1099.941829389995</v>
       </c>
       <c r="W14" t="n">
-        <v>774.3389143994635</v>
+        <v>1099.941829389995</v>
       </c>
       <c r="X14" t="n">
-        <v>714.4341531600821</v>
+        <v>855.555177893953</v>
       </c>
       <c r="Y14" t="n">
-        <v>453.3739279493084</v>
+        <v>855.555177893953</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407.6723038417269</v>
+        <v>487.3073177281522</v>
       </c>
       <c r="C15" t="n">
-        <v>362.2983813256379</v>
+        <v>312.8542884470252</v>
       </c>
       <c r="D15" t="n">
-        <v>213.3639716643867</v>
+        <v>292.998985550812</v>
       </c>
       <c r="E15" t="n">
-        <v>183.2056234239692</v>
+        <v>133.7615305453565</v>
       </c>
       <c r="F15" t="n">
-        <v>165.7501722158921</v>
+        <v>116.3060793372795</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197358</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K15" t="n">
-        <v>144.7567744385589</v>
+        <v>144.7567744385588</v>
       </c>
       <c r="L15" t="n">
-        <v>328.4668801148408</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M15" t="n">
-        <v>562.2047765654393</v>
+        <v>562.204776565439</v>
       </c>
       <c r="N15" t="n">
-        <v>816.5376645420147</v>
+        <v>816.5376645420145</v>
       </c>
       <c r="O15" t="n">
-        <v>1026.98277387907</v>
+        <v>1026.982773879069</v>
       </c>
       <c r="P15" t="n">
-        <v>1176.550461047348</v>
+        <v>1176.550461047347</v>
       </c>
       <c r="Q15" t="n">
         <v>1226.61330256149</v>
       </c>
       <c r="R15" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S15" t="n">
-        <v>1130.647604581053</v>
+        <v>1210.282618467477</v>
       </c>
       <c r="T15" t="n">
-        <v>1063.617788922417</v>
+        <v>1143.252802808842</v>
       </c>
       <c r="U15" t="n">
-        <v>964.572477732074</v>
+        <v>1044.207491618499</v>
       </c>
       <c r="V15" t="n">
-        <v>858.4994762653694</v>
+        <v>938.1344901517944</v>
       </c>
       <c r="W15" t="n">
-        <v>733.3412263022058</v>
+        <v>812.9762401886308</v>
       </c>
       <c r="X15" t="n">
-        <v>654.5688328617109</v>
+        <v>734.203846748136</v>
       </c>
       <c r="Y15" t="n">
-        <v>446.8085340967569</v>
+        <v>655.5226547482202</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361485</v>
+        <v>188.9587444361481</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732796</v>
+        <v>149.1016682732793</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259819</v>
+        <v>128.0641356259816</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086269</v>
+        <v>109.2301488086266</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575451</v>
+        <v>91.41930807575436</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515457</v>
+        <v>52.07468323515448</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4008673166437</v>
+        <v>38.40086731664375</v>
       </c>
       <c r="J16" t="n">
-        <v>126.7810270579757</v>
+        <v>126.7810270579758</v>
       </c>
       <c r="K16" t="n">
-        <v>269.5141466318127</v>
+        <v>269.5141466318128</v>
       </c>
       <c r="L16" t="n">
-        <v>446.6898310015571</v>
+        <v>446.6898310015573</v>
       </c>
       <c r="M16" t="n">
-        <v>594.3739921123331</v>
+        <v>601.0725735453467</v>
       </c>
       <c r="N16" t="n">
-        <v>657.5615365714385</v>
+        <v>664.260118004452</v>
       </c>
       <c r="O16" t="n">
-        <v>822.1228047026495</v>
+        <v>828.821386135663</v>
       </c>
       <c r="P16" t="n">
-        <v>962.1303294414851</v>
+        <v>968.8289108744987</v>
       </c>
       <c r="Q16" t="n">
-        <v>1042.397671093597</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526611</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880737</v>
+        <v>973.9262416880729</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792945</v>
+        <v>878.1585453792937</v>
       </c>
       <c r="U16" t="n">
-        <v>718.095463725593</v>
+        <v>718.0954637255923</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847442</v>
+        <v>592.4900822847435</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128217</v>
+        <v>432.152019012821</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798423</v>
+        <v>333.2415748798417</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013502</v>
+        <v>241.5281025013497</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646647</v>
+        <v>810.957807464666</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010955</v>
+        <v>687.3775825010966</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711885</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497858</v>
+        <v>434.0882152497867</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370207</v>
+        <v>268.4846024370215</v>
       </c>
       <c r="G17" t="n">
-        <v>97.1873325621299</v>
+        <v>97.18733256213001</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006781</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K17" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L17" t="n">
         <v>419.6428849838412</v>
       </c>
       <c r="M17" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569998</v>
@@ -5549,16 +5549,16 @@
         <v>1418.082820495152</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W17" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550913</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.175355551944</v>
+        <v>952.1753555519447</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.14002007554095</v>
+        <v>388.5488098427339</v>
       </c>
       <c r="C18" t="n">
-        <v>77.14002007554095</v>
+        <v>214.0957805616069</v>
       </c>
       <c r="D18" t="n">
-        <v>77.14002007554095</v>
+        <v>65.16137090035559</v>
       </c>
       <c r="E18" t="n">
-        <v>77.14002007554095</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F18" t="n">
-        <v>77.14002007554095</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G18" t="n">
-        <v>77.14002007554095</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H18" t="n">
-        <v>77.14002007554095</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J18" t="n">
         <v>42.58127776197358</v>
@@ -5616,28 +5616,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R18" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S18" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T18" t="n">
-        <v>976.9720035864302</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U18" t="n">
-        <v>976.9720035864302</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V18" t="n">
-        <v>741.8198953546876</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="W18" t="n">
-        <v>492.7518190460277</v>
+        <v>972.3759458332886</v>
       </c>
       <c r="X18" t="n">
-        <v>284.9003188404948</v>
+        <v>764.5244456277558</v>
       </c>
       <c r="Y18" t="n">
-        <v>77.14002007554095</v>
+        <v>556.7641468628019</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K19" t="n">
-        <v>44.7498785170274</v>
+        <v>44.74987851702738</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635813</v>
+        <v>95.41513034635811</v>
       </c>
       <c r="M19" t="n">
         <v>152.092817622072</v>
@@ -5701,22 +5701,22 @@
         <v>266.8282898703964</v>
       </c>
       <c r="T19" t="n">
-        <v>266.8282898703964</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="U19" t="n">
-        <v>81.86426577276679</v>
+        <v>81.86426577276701</v>
       </c>
       <c r="V19" t="n">
-        <v>72.56206954372237</v>
+        <v>72.56206954372249</v>
       </c>
       <c r="W19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646651</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C20" t="n">
-        <v>687.377582501096</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D20" t="n">
-        <v>574.494175871188</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E20" t="n">
         <v>434.0882152497862</v>
@@ -5741,7 +5741,7 @@
         <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256212988</v>
+        <v>97.18733256213</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360423</v>
@@ -5750,7 +5750,7 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K20" t="n">
         <v>217.1760266634139</v>
@@ -5759,10 +5759,10 @@
         <v>419.6428849838412</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965338</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5786,16 +5786,16 @@
         <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519456</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>483.233614123426</v>
+        <v>153.3967016109907</v>
       </c>
       <c r="C21" t="n">
-        <v>483.233614123426</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D21" t="n">
-        <v>334.2992044621748</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="E21" t="n">
-        <v>175.0617494567193</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F21" t="n">
         <v>28.52719148360423</v>
@@ -5829,52 +5829,52 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197358</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7567744385589</v>
+        <v>144.7567744385588</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148408</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M21" t="n">
-        <v>562.2047765654393</v>
+        <v>562.204776565439</v>
       </c>
       <c r="N21" t="n">
-        <v>816.5376645420147</v>
+        <v>816.5376645420145</v>
       </c>
       <c r="O21" t="n">
-        <v>1026.98277387907</v>
+        <v>1026.982773879069</v>
       </c>
       <c r="P21" t="n">
-        <v>1176.550461047348</v>
+        <v>1176.550461047347</v>
       </c>
       <c r="Q21" t="n">
         <v>1226.61330256149</v>
       </c>
       <c r="R21" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S21" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U21" t="n">
-        <v>1173.080926010104</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V21" t="n">
-        <v>937.9288177783612</v>
+        <v>991.4611943297471</v>
       </c>
       <c r="W21" t="n">
-        <v>929.0737530270021</v>
+        <v>737.2238376015455</v>
       </c>
       <c r="X21" t="n">
-        <v>721.2222528214693</v>
+        <v>529.3723373960127</v>
       </c>
       <c r="Y21" t="n">
-        <v>513.4619540565154</v>
+        <v>321.6120386310587</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.7313191393368</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="C22" t="n">
-        <v>169.7313191393368</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D22" t="n">
         <v>28.52719148360423</v>
@@ -5911,49 +5911,49 @@
         <v>28.52719148360423</v>
       </c>
       <c r="K22" t="n">
-        <v>44.7498785170274</v>
+        <v>44.74987851702737</v>
       </c>
       <c r="L22" t="n">
-        <v>95.41513034635813</v>
+        <v>95.41513034635807</v>
       </c>
       <c r="M22" t="n">
-        <v>152.092817622072</v>
+        <v>152.0928176220719</v>
       </c>
       <c r="N22" t="n">
-        <v>215.2803620811774</v>
+        <v>215.2803620811773</v>
       </c>
       <c r="O22" t="n">
-        <v>253.3311976719746</v>
+        <v>253.3311976719745</v>
       </c>
       <c r="P22" t="n">
-        <v>266.8282898703964</v>
+        <v>266.8282898703962</v>
       </c>
       <c r="Q22" t="n">
-        <v>266.8282898703964</v>
+        <v>266.8282898703962</v>
       </c>
       <c r="R22" t="n">
-        <v>266.8282898703964</v>
+        <v>266.8282898703962</v>
       </c>
       <c r="S22" t="n">
-        <v>266.8282898703964</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="T22" t="n">
-        <v>266.8282898703964</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="U22" t="n">
-        <v>223.0683934284993</v>
+        <v>81.86426577276701</v>
       </c>
       <c r="V22" t="n">
-        <v>213.766197199455</v>
+        <v>72.56206954372249</v>
       </c>
       <c r="W22" t="n">
-        <v>169.7313191393368</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="X22" t="n">
-        <v>169.7313191393368</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.7313191393368</v>
+        <v>28.52719148360423</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646656</v>
+        <v>810.9578074646661</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010964</v>
+        <v>687.3775825010968</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711884</v>
+        <v>574.4941758711886</v>
       </c>
       <c r="E23" t="n">
         <v>434.0882152497867</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370216</v>
+        <v>268.4846024370215</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256212987</v>
+        <v>97.18733256213002</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006778</v>
+        <v>83.71911784006781</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634139</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L23" t="n">
-        <v>419.6428849838409</v>
+        <v>419.6428849838411</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965336</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N23" t="n">
-        <v>942.320115789306</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q23" t="n">
         <v>1426.359574180211</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495151</v>
+        <v>1418.082820495152</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W23" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519449</v>
+        <v>952.1753555519454</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.2191398502584</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="C24" t="n">
-        <v>461.2191398502584</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="D24" t="n">
-        <v>312.2847301890072</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="E24" t="n">
-        <v>312.2847301890072</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="F24" t="n">
-        <v>165.7501722158921</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197354</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K24" t="n">
-        <v>144.7567744385588</v>
+        <v>144.7567744385589</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148406</v>
+        <v>328.4668801148407</v>
       </c>
       <c r="M24" t="n">
         <v>562.204776565439</v>
@@ -6093,25 +6093,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S24" t="n">
-        <v>1081.203511702439</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T24" t="n">
-        <v>1081.203511702439</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U24" t="n">
-        <v>853.0790937470584</v>
+        <v>998.4888846061089</v>
       </c>
       <c r="V24" t="n">
-        <v>853.0790937470584</v>
+        <v>763.3367763743661</v>
       </c>
       <c r="W24" t="n">
-        <v>837.1947756352804</v>
+        <v>509.0994196461644</v>
       </c>
       <c r="X24" t="n">
-        <v>837.1947756352804</v>
+        <v>301.2479194406316</v>
       </c>
       <c r="Y24" t="n">
-        <v>629.4344768703265</v>
+        <v>93.4876206756777</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="C25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="D25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702735</v>
+        <v>44.74987851702738</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635805</v>
+        <v>95.41513034635808</v>
       </c>
       <c r="M25" t="n">
         <v>152.0928176220719</v>
@@ -6163,34 +6163,34 @@
         <v>253.3311976719745</v>
       </c>
       <c r="P25" t="n">
-        <v>266.8282898703962</v>
+        <v>266.8282898703963</v>
       </c>
       <c r="Q25" t="n">
-        <v>266.8282898703962</v>
+        <v>266.8282898703963</v>
       </c>
       <c r="R25" t="n">
-        <v>266.8282898703962</v>
+        <v>266.8282898703963</v>
       </c>
       <c r="S25" t="n">
-        <v>266.8282898703962</v>
+        <v>266.8282898703963</v>
       </c>
       <c r="T25" t="n">
-        <v>266.8282898703962</v>
+        <v>266.8282898703963</v>
       </c>
       <c r="U25" t="n">
-        <v>223.0683934284992</v>
+        <v>223.0683934284991</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994548</v>
+        <v>213.7661971994546</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393366</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="X25" t="n">
-        <v>169.7313191393366</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360425</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970976997</v>
+        <v>855.5350970977012</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198964</v>
+        <v>560.8523775198978</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640417</v>
+        <v>74.83913835551118</v>
       </c>
       <c r="J26" t="n">
-        <v>268.5742128710328</v>
+        <v>411.425465558417</v>
       </c>
       <c r="K26" t="n">
-        <v>516.0198735204685</v>
+        <v>704.0513967679613</v>
       </c>
       <c r="L26" t="n">
-        <v>832.4754836669852</v>
+        <v>1020.507006914478</v>
       </c>
       <c r="M26" t="n">
-        <v>1608.842802492487</v>
+        <v>1391.44858725326</v>
       </c>
       <c r="N26" t="n">
-        <v>1988.555956611349</v>
+        <v>1771.161741372121</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.12546521813</v>
+        <v>2008.742498152813</v>
       </c>
       <c r="P26" t="n">
-        <v>2919.526325371473</v>
+        <v>2609.580649496964</v>
       </c>
       <c r="Q26" t="n">
-        <v>3111.705100379482</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913466</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463369</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331603</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224018</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>315.7822431965122</v>
+        <v>548.3886136201194</v>
       </c>
       <c r="C27" t="n">
-        <v>257.6323991271897</v>
+        <v>490.2387695507965</v>
       </c>
       <c r="D27" t="n">
-        <v>225.0011746777429</v>
+        <v>389.4285615354585</v>
       </c>
       <c r="E27" t="n">
-        <v>113.8879213181982</v>
+        <v>230.191106530003</v>
       </c>
       <c r="F27" t="n">
-        <v>83.65654855688763</v>
+        <v>83.656548556888</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K27" t="n">
         <v>178.9663359913588</v>
       </c>
       <c r="L27" t="n">
-        <v>362.6764416676406</v>
+        <v>362.6764416676407</v>
       </c>
       <c r="M27" t="n">
-        <v>596.414338118239</v>
+        <v>596.4143381182391</v>
       </c>
       <c r="N27" t="n">
-        <v>850.7472260948143</v>
+        <v>850.7472260948146</v>
       </c>
       <c r="O27" t="n">
         <v>1061.192335431869</v>
       </c>
       <c r="P27" t="n">
-        <v>1210.760022600147</v>
+        <v>1210.760022600148</v>
       </c>
       <c r="Q27" t="n">
         <v>1260.82286411429</v>
@@ -6333,22 +6333,22 @@
         <v>1231.716258467044</v>
       </c>
       <c r="T27" t="n">
-        <v>1035.60733604337</v>
+        <v>1151.910521255174</v>
       </c>
       <c r="U27" t="n">
-        <v>807.4829180879891</v>
+        <v>1040.089288511597</v>
       </c>
       <c r="V27" t="n">
-        <v>688.6339950680508</v>
+        <v>921.240365491659</v>
       </c>
       <c r="W27" t="n">
-        <v>550.6998235516536</v>
+        <v>783.3061939752615</v>
       </c>
       <c r="X27" t="n">
-        <v>459.1515085579252</v>
+        <v>691.7578789815329</v>
       </c>
       <c r="Y27" t="n">
-        <v>367.6943950047758</v>
+        <v>600.3007654283832</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.525605414752</v>
+        <v>302.5256054147541</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986495</v>
+        <v>249.8926076986514</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981183</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275296</v>
+        <v>184.4692451275309</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414237</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475902</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280633</v>
+        <v>65.4385231428067</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="K28" t="n">
-        <v>184.6357687510333</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L28" t="n">
-        <v>510.1397269325925</v>
+        <v>510.1397269325922</v>
       </c>
       <c r="M28" t="n">
-        <v>680.8061660343958</v>
+        <v>857.5307303347465</v>
       </c>
       <c r="N28" t="n">
-        <v>1028.082001995608</v>
+        <v>1034.707026619941</v>
       </c>
       <c r="O28" t="n">
-        <v>1066.132837586405</v>
+        <v>1072.757862210738</v>
       </c>
       <c r="P28" t="n">
-        <v>1138.376627983129</v>
+        <v>1203.066156777108</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703644</v>
+        <v>895.541932470368</v>
       </c>
       <c r="V28" t="n">
-        <v>757.160629476282</v>
+        <v>757.1606294762853</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511258</v>
+        <v>584.0466446511288</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649129</v>
+        <v>472.3602789649156</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331872</v>
+        <v>367.8708850331897</v>
       </c>
     </row>
     <row r="29">
@@ -6446,67 +6446,67 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.535097097702</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198989</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551141</v>
+        <v>74.83913835551125</v>
       </c>
       <c r="J29" t="n">
-        <v>244.0198165380645</v>
+        <v>411.4254655584172</v>
       </c>
       <c r="K29" t="n">
-        <v>491.4654771875002</v>
+        <v>805.9251961352707</v>
       </c>
       <c r="L29" t="n">
-        <v>807.9210873340169</v>
+        <v>1122.380806281787</v>
       </c>
       <c r="M29" t="n">
-        <v>1178.862667672799</v>
+        <v>1493.322386620569</v>
       </c>
       <c r="N29" t="n">
-        <v>1955.229986498301</v>
+        <v>1873.035540739431</v>
       </c>
       <c r="O29" t="n">
-        <v>2683.7916745552</v>
+        <v>2173.555588948274</v>
       </c>
       <c r="P29" t="n">
-        <v>2852.060352983494</v>
+        <v>2660.404988466335</v>
       </c>
       <c r="Q29" t="n">
-        <v>3044.239127991503</v>
+        <v>3062.77560422765</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.83765182021</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769877</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913468</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X29" t="n">
         <v>2163.77481122402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>378.5530518569303</v>
+        <v>548.3886136201197</v>
       </c>
       <c r="C30" t="n">
-        <v>320.4032077876078</v>
+        <v>490.2387695507969</v>
       </c>
       <c r="D30" t="n">
-        <v>255.6287214561004</v>
+        <v>389.4285615354585</v>
       </c>
       <c r="E30" t="n">
-        <v>212.6944516624494</v>
+        <v>230.191106530003</v>
       </c>
       <c r="F30" t="n">
-        <v>182.4630789011388</v>
+        <v>83.65654855688793</v>
       </c>
       <c r="G30" t="n">
-        <v>161.5432833806553</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477354</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K30" t="n">
         <v>178.9663359913588</v>
       </c>
       <c r="L30" t="n">
-        <v>362.6764416676406</v>
+        <v>362.6764416676407</v>
       </c>
       <c r="M30" t="n">
-        <v>596.414338118239</v>
+        <v>596.4143381182391</v>
       </c>
       <c r="N30" t="n">
-        <v>850.7472260948143</v>
+        <v>850.7472260948146</v>
       </c>
       <c r="O30" t="n">
         <v>1061.192335431869</v>
       </c>
       <c r="P30" t="n">
-        <v>1210.760022600147</v>
+        <v>1210.760022600148</v>
       </c>
       <c r="Q30" t="n">
         <v>1260.82286411429</v>
       </c>
       <c r="R30" t="n">
-        <v>1207.290487562903</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S30" t="n">
-        <v>1178.183881915657</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T30" t="n">
-        <v>1098.378144703788</v>
+        <v>1151.910521255174</v>
       </c>
       <c r="U30" t="n">
-        <v>986.5569119602117</v>
+        <v>1040.089288511597</v>
       </c>
       <c r="V30" t="n">
-        <v>867.7079889402734</v>
+        <v>921.2403654916591</v>
       </c>
       <c r="W30" t="n">
-        <v>729.7738174238762</v>
+        <v>783.3061939752617</v>
       </c>
       <c r="X30" t="n">
-        <v>521.9223172183433</v>
+        <v>691.7578789815332</v>
       </c>
       <c r="Y30" t="n">
-        <v>430.4652036651939</v>
+        <v>600.3007654283836</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.525605414752</v>
+        <v>302.5256054147536</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986496</v>
+        <v>249.8926076986509</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981183</v>
+        <v>216.0791534981194</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275297</v>
+        <v>184.4692451275306</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414238</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475902</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280636</v>
+        <v>65.43852314280663</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640421</v>
+        <v>171.895110972908</v>
       </c>
       <c r="K31" t="n">
-        <v>192.9481918959169</v>
+        <v>188.1177980063311</v>
       </c>
       <c r="L31" t="n">
-        <v>243.6134437252476</v>
+        <v>399.6330043618007</v>
       </c>
       <c r="M31" t="n">
-        <v>477.0156953013127</v>
+        <v>570.2994434636039</v>
       </c>
       <c r="N31" t="n">
-        <v>824.2915312625248</v>
+        <v>747.4757397487986</v>
       </c>
       <c r="O31" t="n">
-        <v>1010.890783958618</v>
+        <v>1009.669476009483</v>
       </c>
       <c r="P31" t="n">
-        <v>1138.376627983129</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703644</v>
+        <v>895.5419324703671</v>
       </c>
       <c r="V31" t="n">
-        <v>757.160629476282</v>
+        <v>757.1606294762845</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511258</v>
+        <v>584.0466446511281</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649129</v>
+        <v>472.360278964915</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331873</v>
+        <v>367.8708850331891</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
-        <v>1125.020164484141</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977009</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198978</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640421</v>
+        <v>74.83913835551124</v>
       </c>
       <c r="J32" t="n">
-        <v>399.3230802393103</v>
+        <v>411.4254655584172</v>
       </c>
       <c r="K32" t="n">
-        <v>646.7687408887459</v>
+        <v>658.8711262078526</v>
       </c>
       <c r="L32" t="n">
-        <v>904.5310071870338</v>
+        <v>975.326736354369</v>
       </c>
       <c r="M32" t="n">
-        <v>1275.472587525816</v>
+        <v>1268.933224299383</v>
       </c>
       <c r="N32" t="n">
-        <v>1541.196989818588</v>
+        <v>1648.646378418245</v>
       </c>
       <c r="O32" t="n">
-        <v>2269.758677875488</v>
+        <v>2000.215887025026</v>
       </c>
       <c r="P32" t="n">
-        <v>2870.596829219638</v>
+        <v>2595.345732792083</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.775604227647</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.83765182021</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769877</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913468</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273294</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224019</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>247.6032596306188</v>
+        <v>247.6032596306199</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4534155612962</v>
+        <v>189.4534155612971</v>
       </c>
       <c r="D33" t="n">
-        <v>156.8221911118494</v>
+        <v>156.82219111185</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181983</v>
+        <v>113.8879213181987</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688769</v>
+        <v>83.65654855688794</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477354</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K33" t="n">
         <v>178.9663359913588</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6764416676406</v>
+        <v>362.6764416676407</v>
       </c>
       <c r="M33" t="n">
-        <v>596.414338118239</v>
+        <v>596.4143381182391</v>
       </c>
       <c r="N33" t="n">
-        <v>850.7472260948143</v>
+        <v>850.7472260948146</v>
       </c>
       <c r="O33" t="n">
         <v>1061.192335431869</v>
       </c>
       <c r="P33" t="n">
-        <v>1210.760022600147</v>
+        <v>1210.760022600148</v>
       </c>
       <c r="Q33" t="n">
         <v>1260.82286411429</v>
       </c>
       <c r="R33" t="n">
-        <v>1207.290487562903</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1178.183881915657</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>982.0749594919837</v>
+        <v>1151.910521255174</v>
       </c>
       <c r="U33" t="n">
-        <v>870.2537267484072</v>
+        <v>1040.089288511597</v>
       </c>
       <c r="V33" t="n">
-        <v>751.4048037284689</v>
+        <v>804.9371802798548</v>
       </c>
       <c r="W33" t="n">
-        <v>613.4706322120717</v>
+        <v>550.6998235516533</v>
       </c>
       <c r="X33" t="n">
-        <v>507.2757102038364</v>
+        <v>390.9725249920334</v>
       </c>
       <c r="Y33" t="n">
-        <v>415.8185966506869</v>
+        <v>299.5154114388837</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147522</v>
+        <v>302.5256054147537</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986497</v>
+        <v>249.892607698651</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981184</v>
+        <v>216.0791534981195</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275298</v>
+        <v>184.4692451275307</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414238</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475903</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280639</v>
+        <v>65.43852314280664</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J34" t="n">
-        <v>171.8951109729081</v>
+        <v>138.5952320634119</v>
       </c>
       <c r="K34" t="n">
-        <v>302.1065498324207</v>
+        <v>260.494247778041</v>
       </c>
       <c r="L34" t="n">
-        <v>493.2944316196345</v>
+        <v>472.0094541335105</v>
       </c>
       <c r="M34" t="n">
-        <v>840.6854350217891</v>
+        <v>690.9090584074288</v>
       </c>
       <c r="N34" t="n">
-        <v>903.8729794808944</v>
+        <v>924.1961425425513</v>
       </c>
       <c r="O34" t="n">
-        <v>1055.912566897781</v>
+        <v>1123.658227835572</v>
       </c>
       <c r="P34" t="n">
-        <v>1203.066156777104</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.3809356773</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703646</v>
+        <v>895.5419324703673</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762822</v>
+        <v>757.1606294762846</v>
       </c>
       <c r="W34" t="n">
-        <v>584.046644651126</v>
+        <v>584.0466446511282</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649131</v>
+        <v>472.360278964915</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331874</v>
+        <v>367.8708850331892</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291568</v>
+        <v>955.8582442291583</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497049</v>
+        <v>809.0750081497063</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039143</v>
+        <v>672.9885904039153</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666298</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379821</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472083</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155279996</v>
+        <v>94.88778177156844</v>
       </c>
       <c r="J35" t="n">
-        <v>182.0750538646467</v>
+        <v>150.079708128032</v>
       </c>
       <c r="K35" t="n">
-        <v>315.5319626879929</v>
+        <v>283.5366169513782</v>
       </c>
       <c r="L35" t="n">
-        <v>517.99882100842</v>
+        <v>486.0034752718053</v>
       </c>
       <c r="M35" t="n">
-        <v>774.9516495211128</v>
+        <v>742.956303784498</v>
       </c>
       <c r="N35" t="n">
-        <v>1040.676051813885</v>
+        <v>1008.680706077271</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029785</v>
+        <v>1246.261462857962</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458078</v>
+        <v>1414.530141286256</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839056</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356445</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>220.0453708770246</v>
+        <v>208.6625908339271</v>
       </c>
       <c r="C36" t="n">
-        <v>220.0453708770246</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D36" t="n">
-        <v>220.0453708770246</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E36" t="n">
-        <v>220.0453708770246</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F36" t="n">
-        <v>220.0453708770246</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G36" t="n">
-        <v>82.82239014473669</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H36" t="n">
-        <v>82.82239014473669</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116929</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N36" t="n">
         <v>822.2200346112102</v>
@@ -7038,28 +7038,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R36" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="S36" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T36" t="n">
-        <v>982.6543736556255</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U36" t="n">
-        <v>976.7092365612044</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V36" t="n">
-        <v>741.5571283294616</v>
+        <v>1046.727083552683</v>
       </c>
       <c r="W36" t="n">
-        <v>487.31977160126</v>
+        <v>792.4897268244817</v>
       </c>
       <c r="X36" t="n">
-        <v>388.2607078970926</v>
+        <v>584.6382266189489</v>
       </c>
       <c r="Y36" t="n">
-        <v>388.2607078970926</v>
+        <v>376.8779278539951</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.32686361096947</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C37" t="n">
-        <v>97.32686361096947</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D37" t="n">
-        <v>97.32686361096947</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E37" t="n">
-        <v>97.32686361096947</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K37" t="n">
-        <v>50.4322485862231</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L37" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M37" t="n">
         <v>157.7751876912677</v>
       </c>
       <c r="N37" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O37" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S37" t="n">
-        <v>272.510659939592</v>
+        <v>209.3933578814242</v>
       </c>
       <c r="T37" t="n">
-        <v>269.8431377267347</v>
+        <v>206.7258356685665</v>
       </c>
       <c r="U37" t="n">
-        <v>202.8802301689549</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V37" t="n">
-        <v>170.3750228240278</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W37" t="n">
-        <v>103.137133648027</v>
+        <v>40.01983158985789</v>
       </c>
       <c r="X37" t="n">
-        <v>97.32686361096947</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.32686361096947</v>
+        <v>34.20956155280003</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.858244229157</v>
+        <v>955.858244229159</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497051</v>
+        <v>809.0750081497071</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039145</v>
+        <v>672.9885904039161</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666301</v>
+        <v>509.3796186666315</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379824</v>
+        <v>320.5729947379834</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155279996</v>
+        <v>150.0811082176442</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926352</v>
+        <v>205.2730345741077</v>
       </c>
       <c r="K38" t="n">
-        <v>222.8583967326097</v>
+        <v>338.7299433974539</v>
       </c>
       <c r="L38" t="n">
-        <v>425.3252550530368</v>
+        <v>541.196801717881</v>
       </c>
       <c r="M38" t="n">
-        <v>682.2780835657295</v>
+        <v>798.1496302305738</v>
       </c>
       <c r="N38" t="n">
-        <v>1105.621407781629</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O38" t="n">
-        <v>1343.202164562321</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P38" t="n">
-        <v>1511.470842990614</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077639998</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077639998</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077639998</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839056</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356445</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947291</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547171</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432319</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.5863850563566</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C39" t="n">
-        <v>344.5863850563566</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D39" t="n">
-        <v>344.5863850563566</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E39" t="n">
-        <v>317.9671002582029</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F39" t="n">
-        <v>171.4325422850879</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155279996</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116929</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N39" t="n">
         <v>822.2200346112102</v>
@@ -7275,28 +7275,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R39" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="S39" t="n">
-        <v>1033.353505220249</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T39" t="n">
-        <v>1033.353505220249</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U39" t="n">
-        <v>1027.408368125828</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V39" t="n">
-        <v>1014.435540755045</v>
+        <v>1213.377708165481</v>
       </c>
       <c r="W39" t="n">
-        <v>760.1981840268434</v>
+        <v>1181.319632298239</v>
       </c>
       <c r="X39" t="n">
-        <v>552.3466838213105</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y39" t="n">
-        <v>344.5863850563566</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K40" t="n">
-        <v>1488.399666286629</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L40" t="n">
-        <v>1539.06491811596</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M40" t="n">
-        <v>1595.742605391674</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N40" t="n">
-        <v>1658.930149850779</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.980985441576</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P40" t="n">
-        <v>1710.478077639998</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q40" t="n">
-        <v>1710.478077639998</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R40" t="n">
-        <v>1710.478077639998</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S40" t="n">
-        <v>1710.478077639998</v>
+        <v>209.3933578814238</v>
       </c>
       <c r="T40" t="n">
-        <v>1707.810555427141</v>
+        <v>206.7258356685662</v>
       </c>
       <c r="U40" t="n">
-        <v>1640.847647869361</v>
+        <v>139.7629281107862</v>
       </c>
       <c r="V40" t="n">
-        <v>1545.225138466264</v>
+        <v>107.2577207658589</v>
       </c>
       <c r="W40" t="n">
-        <v>1477.987249290263</v>
+        <v>40.0198315898578</v>
       </c>
       <c r="X40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="Y40" t="n">
-        <v>1472.176979253206</v>
+        <v>34.20956155280003</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291562</v>
+        <v>955.8582442291583</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497042</v>
+        <v>809.0750081497062</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039136</v>
+        <v>672.9885904039152</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666293</v>
+        <v>509.3796186666307</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379816</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155279994</v>
+        <v>150.0811082176441</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926349</v>
+        <v>205.2730345741076</v>
       </c>
       <c r="K41" t="n">
-        <v>222.8583967326097</v>
+        <v>338.7299433974538</v>
       </c>
       <c r="L41" t="n">
-        <v>425.3252550530368</v>
+        <v>541.1968017178808</v>
       </c>
       <c r="M41" t="n">
-        <v>682.2780835657295</v>
+        <v>798.1496302305736</v>
       </c>
       <c r="N41" t="n">
-        <v>948.002485858502</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O41" t="n">
-        <v>1212.419416929178</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P41" t="n">
-        <v>1380.688095357472</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1458.878118539391</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R41" t="n">
-        <v>1636.709327477692</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077639997</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.8344555006337</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C42" t="n">
-        <v>342.3814262195067</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D42" t="n">
-        <v>193.4470165582554</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E42" t="n">
-        <v>34.20956155279994</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F42" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G42" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L42" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N42" t="n">
         <v>822.2200346112102</v>
@@ -7515,25 +7515,25 @@
         <v>1232.295672630685</v>
       </c>
       <c r="S42" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T42" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U42" t="n">
-        <v>1006.223920460578</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V42" t="n">
-        <v>771.0718122288354</v>
+        <v>1213.377708165481</v>
       </c>
       <c r="W42" t="n">
-        <v>516.8344555006337</v>
+        <v>1181.319632298239</v>
       </c>
       <c r="X42" t="n">
-        <v>516.8344555006337</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y42" t="n">
-        <v>516.8344555006337</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622307</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L43" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M43" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N43" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O43" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S43" t="n">
-        <v>272.510659939592</v>
+        <v>209.3933578814242</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267347</v>
+        <v>206.7258356685665</v>
       </c>
       <c r="U43" t="n">
-        <v>139.7629281107853</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V43" t="n">
-        <v>107.2577207658582</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W43" t="n">
-        <v>40.01983158985743</v>
+        <v>40.01983158985789</v>
       </c>
       <c r="X43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291555</v>
+        <v>955.8582442291582</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497038</v>
+        <v>809.0750081497063</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039133</v>
+        <v>672.9885904039154</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666291</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379814</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155279994</v>
+        <v>150.0811082176441</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926349</v>
+        <v>205.2730345741076</v>
       </c>
       <c r="K44" t="n">
-        <v>222.8583967326097</v>
+        <v>338.7299433974538</v>
       </c>
       <c r="L44" t="n">
-        <v>486.0034752717998</v>
+        <v>541.1968017178808</v>
       </c>
       <c r="M44" t="n">
-        <v>742.9563037844925</v>
+        <v>798.1496302305736</v>
       </c>
       <c r="N44" t="n">
-        <v>1008.680706077265</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O44" t="n">
-        <v>1246.261462857957</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.288054458077</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077639997</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077639997</v>
+        <v>1627.725337080626</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077639997</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947289</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>187.5908570880632</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5908570880632</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D45" t="n">
-        <v>38.65644742681189</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E45" t="n">
-        <v>38.65644742681189</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F45" t="n">
-        <v>38.65644742681189</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G45" t="n">
-        <v>38.65644742681189</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N45" t="n">
         <v>822.2200346112102</v>
@@ -7752,25 +7752,25 @@
         <v>1232.295672630685</v>
       </c>
       <c r="S45" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T45" t="n">
-        <v>890.7769593479613</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U45" t="n">
-        <v>662.6525413925805</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V45" t="n">
-        <v>427.5004331608378</v>
+        <v>1213.377708165481</v>
       </c>
       <c r="W45" t="n">
-        <v>395.442357293596</v>
+        <v>1181.319632298239</v>
       </c>
       <c r="X45" t="n">
-        <v>187.5908570880632</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y45" t="n">
-        <v>187.5908570880632</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="C46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="D46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="E46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="F46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622307</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L46" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N46" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O46" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S46" t="n">
-        <v>272.510659939592</v>
+        <v>209.3933578814242</v>
       </c>
       <c r="T46" t="n">
-        <v>269.8431377267347</v>
+        <v>206.7258356685665</v>
       </c>
       <c r="U46" t="n">
-        <v>202.880230168955</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V46" t="n">
-        <v>107.2577207658582</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W46" t="n">
-        <v>40.01983158985743</v>
+        <v>40.01983158985789</v>
       </c>
       <c r="X46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.20956155279994</v>
+        <v>34.20956155280003</v>
       </c>
     </row>
   </sheetData>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>37.0270521738137</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>45.63663692940281</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>409.5209479663831</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,19 +10039,19 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>59.34009919020434</v>
+        <v>117.9911135029776</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>148.5394645731495</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>400.6607724309495</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>52.6021744909692</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,22 +10273,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>150.0489061669656</v>
+        <v>111.2668170139369</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>30.32776055494082</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>316.0327429420954</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>26.80189710282178</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>48.72036886072232</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.8167121503419</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736199</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>49.17483452419781</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748741</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443238</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274268</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>83.09443458014329</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078954</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200254</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D14" t="n">
         <v>226.8947259232953</v>
@@ -23504,13 +23504,13 @@
         <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443238</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358285</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>100.8942328206007</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
-        <v>182.6370713540938</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.08326971452237e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1395771.008769283</v>
+        <v>1395771.008769282</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1442217.183820269</v>
+        <v>1442217.18382027</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1442217.183820269</v>
+        <v>1442217.18382027</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1442217.183820269</v>
+        <v>1442217.18382027</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40963.81693585191</v>
+        <v>40963.81693585192</v>
       </c>
       <c r="C2" t="n">
         <v>40963.81693585192</v>
       </c>
       <c r="D2" t="n">
-        <v>40963.81693585193</v>
+        <v>40963.81693585189</v>
       </c>
       <c r="E2" t="n">
         <v>35152.0108915841</v>
       </c>
       <c r="F2" t="n">
-        <v>35152.01089158411</v>
+        <v>35152.0108915841</v>
       </c>
       <c r="G2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="H2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="H2" t="n">
-        <v>41052.0884932142</v>
-      </c>
       <c r="I2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321417</v>
       </c>
-      <c r="K2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774913</v>
+        <v>92112.12268774898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365099</v>
+        <v>111884.0815365101</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.1226877491</v>
+        <v>92112.12268774897</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413105</v>
+        <v>83853.86775413096</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>161674.3217732036</v>
       </c>
       <c r="G4" t="n">
-        <v>228781.8774821128</v>
+        <v>228781.8774821127</v>
       </c>
       <c r="H4" t="n">
-        <v>228781.8774821128</v>
+        <v>228781.8774821127</v>
       </c>
       <c r="I4" t="n">
         <v>228781.8774821128</v>
@@ -26448,7 +26448,7 @@
         <v>231159.1105944615</v>
       </c>
       <c r="M4" t="n">
-        <v>229069.74047253</v>
+        <v>229069.7404725301</v>
       </c>
       <c r="N4" t="n">
         <v>229069.7404725301</v>
@@ -26482,34 +26482,34 @@
         <v>47553.01820892902</v>
       </c>
       <c r="G5" t="n">
+        <v>57232.73576172449</v>
+      </c>
+      <c r="H5" t="n">
+        <v>57232.73576172449</v>
+      </c>
+      <c r="I5" t="n">
         <v>57232.7357617245</v>
       </c>
-      <c r="H5" t="n">
-        <v>57232.7357617245</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57232.73576172449</v>
-      </c>
       <c r="J5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.96662948882</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222712</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222712</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.1896122271</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.1896122271</v>
+        <v>59620.18961222714</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460279.7429958793</v>
+        <v>-460284.1565737474</v>
       </c>
       <c r="C6" t="n">
-        <v>-460279.7429958793</v>
+        <v>-460284.1565737474</v>
       </c>
       <c r="D6" t="n">
-        <v>-460279.7429958793</v>
+        <v>-460284.1565737475</v>
       </c>
       <c r="E6" t="n">
-        <v>-940341.8642129818</v>
+        <v>-940636.8680930632</v>
       </c>
       <c r="F6" t="n">
-        <v>-174075.3290905484</v>
+        <v>-174370.33297063</v>
       </c>
       <c r="G6" t="n">
-        <v>-337074.6474383723</v>
+        <v>-337074.647438372</v>
       </c>
       <c r="H6" t="n">
-        <v>-244962.5247506231</v>
+        <v>-244962.524750623</v>
       </c>
       <c r="I6" t="n">
         <v>-244962.5247506231</v>
       </c>
       <c r="J6" t="n">
-        <v>-374480.0702672459</v>
+        <v>-374480.0702672462</v>
       </c>
       <c r="K6" t="n">
-        <v>-262595.9887307362</v>
+        <v>-262595.9887307361</v>
       </c>
       <c r="L6" t="n">
         <v>-354708.1114184852</v>
@@ -26555,13 +26555,13 @@
         <v>-331491.709345674</v>
       </c>
       <c r="N6" t="n">
-        <v>-247637.841591543</v>
+        <v>-247637.8415915431</v>
       </c>
       <c r="O6" t="n">
         <v>-247637.8415915429</v>
       </c>
       <c r="P6" t="n">
-        <v>-247637.8415915429</v>
+        <v>-247637.841591543</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="3">
@@ -26747,13 +26747,13 @@
         <v>694.0053563773453</v>
       </c>
       <c r="F3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="G3" t="n">
         <v>694.0053563773453</v>
       </c>
       <c r="H3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773452</v>
       </c>
       <c r="I3" t="n">
         <v>694.0053563773452</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450531</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="H4" t="n">
         <v>356.5898935450529</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450527</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550521</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550526</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550526</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194099995</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194099995</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194099992</v>
+        <v>427.6195194100004</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194099992</v>
+        <v>427.6195194100004</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926638</v>
+        <v>104.8173346926637</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450531</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099994</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450531</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28138,25 +28138,25 @@
         <v>40.33000427628923</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
         <v>48.12670030601735</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973876</v>
+        <v>48.94965194982538</v>
       </c>
       <c r="Y12" t="n">
-        <v>71.97685407911996</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="L13" t="n">
-        <v>55.18894826242358</v>
+        <v>61.95519213415335</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Q13" t="n">
         <v>46.71019281646672</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973876</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>48.94965194982646</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
-        <v>48.12670030601735</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S15" t="n">
-        <v>101.9467047356991</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="M16" t="n">
-        <v>91.92573114652734</v>
+        <v>98.69197501825812</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R16" t="n">
-        <v>127.7883156973876</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242246</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="18">
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>121.3772428328171</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -28661,7 +28661,7 @@
         <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S18" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>5.117587615346309</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28773,16 +28773,16 @@
         <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
-        <v>222.598335043079</v>
+        <v>82.80624866390409</v>
       </c>
       <c r="U19" t="n">
-        <v>103.1363826778988</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V19" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W19" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.33000427628923</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S20" t="n">
         <v>145.4435989995167</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="21">
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.6071271161088</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>49.08768396220313</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.850750924965</v>
@@ -28898,7 +28898,7 @@
         <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>48.12670030601735</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S21" t="n">
         <v>143.9556929504599</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>242.928469057074</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>8.823386639037153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28980,7 +28980,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J22" t="n">
-        <v>38.51542706977951</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,25 +29001,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.71019281646672</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R22" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
-        <v>202.20662642754</v>
+        <v>62.41454004836521</v>
       </c>
       <c r="T22" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242246</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.33000427628926</v>
+        <v>40.33000427629061</v>
       </c>
       <c r="S23" t="n">
         <v>145.4435989995167</v>
@@ -29092,19 +29092,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="24">
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>102.2223587497146</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
         <v>97.81846504080859</v>
@@ -29165,7 +29165,7 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
         <v>194.1478331994369</v>
@@ -29174,13 +29174,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>235.9695082302594</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29250,19 +29250,19 @@
         <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.79256697291973</v>
+        <v>78.79256697292001</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I26" t="n">
-        <v>102.9155217242246</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.48632387402195</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596864</v>
+        <v>100.7614496173822</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596864</v>
+        <v>47.64295962945415</v>
       </c>
       <c r="E27" t="n">
-        <v>47.64295962945175</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I27" t="n">
-        <v>48.12670030601736</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>52.99705278587243</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="28">
@@ -29430,43 +29430,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J28" t="n">
-        <v>4.879185747056184</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29475,31 +29475,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596864</v>
+        <v>63.57504184661769</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R29" t="n">
-        <v>81.26169223856004</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D30" t="n">
-        <v>83.31832409644649</v>
+        <v>47.6429596294537</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I30" t="n">
-        <v>48.12670030601736</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
-        <v>4.879185747056184</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596864</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I32" t="n">
-        <v>102.9155217242246</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L32" t="n">
-        <v>25.52618689744379</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596864</v>
+        <v>37.0238984164859</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>100.6400124153245</v>
+        <v>47.6429596294538</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29983,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I35" t="n">
-        <v>102.9155217242246</v>
+        <v>164.2066532583341</v>
       </c>
       <c r="J35" t="n">
-        <v>93.60966258119518</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>187.6389570052605</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="R35" t="n">
         <v>40.33000427628926</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30077,13 +30077,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S36" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>54.97336968568038</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>107.7045121363518</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>82.93491898534344</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.7394942895816</v>
@@ -30192,22 +30192,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S37" t="n">
-        <v>202.20662642754</v>
+        <v>139.7204973899538</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I38" t="n">
-        <v>102.9155217242246</v>
+        <v>219.95748805235</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>159.2110322455828</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.037587340873</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.33000427628926</v>
+        <v>195.461919759804</v>
       </c>
       <c r="S38" t="n">
         <v>145.4435989995167</v>
       </c>
       <c r="T38" t="n">
-        <v>210.882750277531</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>131.2919885052287</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
         <v>97.81846504080859</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V39" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>65.2177519944039</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30429,22 +30429,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
-        <v>202.20662642754</v>
+        <v>139.7204973899534</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4713590147625</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I41" t="n">
-        <v>102.9155217242246</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>27.10724675756003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>219.9574880523502</v>
+        <v>195.4619197598044</v>
       </c>
       <c r="S41" t="n">
-        <v>219.9574880523502</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T41" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
@@ -30587,25 +30587,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>145.9878320778807</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>65.21775199440435</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30666,22 +30666,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
-        <v>202.20662642754</v>
+        <v>139.7204973899538</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4713590147622</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I44" t="n">
-        <v>102.9155217242246</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>61.29113153410407</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.33000427628926</v>
+        <v>120.9480307069711</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T44" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>93.41604802553675</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
         <v>48.12670030601736</v>
@@ -30824,25 +30824,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W45" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>65.21775199440435</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30903,22 +30903,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
-        <v>202.20662642754</v>
+        <v>139.7204973899538</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4713590147622</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523502</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H14" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I14" t="n">
         <v>107.5603678461813</v>
@@ -31999,37 +31999,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K14" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L14" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M14" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N14" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O14" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P14" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R14" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S14" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T14" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H15" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I15" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J15" t="n">
         <v>141.0336734124943</v>
@@ -32090,25 +32090,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O15" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P15" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R15" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S15" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T15" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,16 +32148,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H16" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I16" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J16" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K16" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L16" t="n">
         <v>186.0616983310673</v>
@@ -32178,13 +32178,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R16" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S16" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T16" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U16" t="n">
         <v>0.06826282193875534</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.789971281918974</v>
+        <v>2.789971281918973</v>
       </c>
       <c r="H20" t="n">
-        <v>28.5727933909527</v>
+        <v>28.57279339095269</v>
       </c>
       <c r="I20" t="n">
         <v>107.5603678461813</v>
@@ -32473,37 +32473,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K20" t="n">
-        <v>354.894809452401</v>
+        <v>354.8948094524009</v>
       </c>
       <c r="L20" t="n">
-        <v>440.2783930714289</v>
+        <v>440.2783930714288</v>
       </c>
       <c r="M20" t="n">
-        <v>489.8945448562554</v>
+        <v>489.8945448562553</v>
       </c>
       <c r="N20" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610076</v>
       </c>
       <c r="O20" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P20" t="n">
-        <v>401.2013578040512</v>
+        <v>401.2013578040511</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.2855112703278</v>
+        <v>301.2855112703277</v>
       </c>
       <c r="R20" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S20" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672867</v>
       </c>
       <c r="T20" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2231977025535179</v>
+        <v>0.2231977025535178</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.492766238245611</v>
+        <v>1.49276623824561</v>
       </c>
       <c r="H21" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I21" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398264</v>
       </c>
       <c r="J21" t="n">
         <v>141.0336734124943</v>
@@ -32564,25 +32564,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O21" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566211</v>
       </c>
       <c r="P21" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.5503008679836</v>
+        <v>190.5503008679835</v>
       </c>
       <c r="R21" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809153</v>
       </c>
       <c r="S21" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T21" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384717</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.09820830514773757</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,16 +32622,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H22" t="n">
-        <v>11.12683997601712</v>
+        <v>11.12683997601711</v>
       </c>
       <c r="I22" t="n">
-        <v>37.63556916223375</v>
+        <v>37.63556916223374</v>
       </c>
       <c r="J22" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961659</v>
       </c>
       <c r="K22" t="n">
-        <v>145.3998107295487</v>
+        <v>145.3998107295486</v>
       </c>
       <c r="L22" t="n">
         <v>186.0616983310673</v>
@@ -32652,13 +32652,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R22" t="n">
-        <v>56.27131955151391</v>
+        <v>56.2713195515139</v>
       </c>
       <c r="S22" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T22" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202493</v>
       </c>
       <c r="U22" t="n">
         <v>0.06826282193875534</v>
@@ -35565,31 +35565,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.27288862760813</v>
+        <v>89.27288862760825</v>
       </c>
       <c r="K13" t="n">
-        <v>144.1748682564009</v>
+        <v>144.1748682564011</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3659703122526</v>
+        <v>113.1322141839824</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647754</v>
+        <v>185.0385048647755</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O13" t="n">
-        <v>166.2235031628394</v>
+        <v>166.2235031628395</v>
       </c>
       <c r="P13" t="n">
-        <v>141.42174216044</v>
+        <v>141.4217421604401</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.766243871732058</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K14" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L14" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M14" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N14" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O14" t="n">
         <v>239.9805624047391</v>
@@ -35665,7 +35665,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.19604674582763</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K15" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L15" t="n">
-        <v>185.5657633093757</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M15" t="n">
-        <v>236.0988853036348</v>
+        <v>236.0988853036347</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9019070470459</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O15" t="n">
         <v>212.5708175121767</v>
       </c>
       <c r="P15" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35799,22 +35799,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.973409932363097</v>
+        <v>9.973409932363161</v>
       </c>
       <c r="J16" t="n">
-        <v>89.27288862760813</v>
+        <v>89.27288862760818</v>
       </c>
       <c r="K16" t="n">
-        <v>144.1748682564009</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L16" t="n">
         <v>178.9653377472167</v>
       </c>
       <c r="M16" t="n">
-        <v>149.1759203139151</v>
+        <v>155.9421641856459</v>
       </c>
       <c r="N16" t="n">
-        <v>63.82580248394484</v>
+        <v>63.82580248394481</v>
       </c>
       <c r="O16" t="n">
         <v>166.2235031628394</v>
@@ -35823,10 +35823,10 @@
         <v>141.42174216044</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092092</v>
+        <v>81.07812288092097</v>
       </c>
       <c r="R16" t="n">
-        <v>6.766243871732058</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.74942056208442</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K20" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L20" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M20" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N20" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O20" t="n">
         <v>239.9805624047391</v>
@@ -36139,7 +36139,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.19604674582763</v>
+        <v>14.1960467458276</v>
       </c>
       <c r="K21" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L21" t="n">
-        <v>185.5657633093757</v>
+        <v>185.5657633093756</v>
       </c>
       <c r="M21" t="n">
-        <v>236.0988853036348</v>
+        <v>236.0988853036347</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9019070470459</v>
+        <v>256.9019070470458</v>
       </c>
       <c r="O21" t="n">
         <v>212.5708175121767</v>
       </c>
       <c r="P21" t="n">
-        <v>151.0784718871496</v>
+        <v>151.0784718871495</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196202</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.3865525590133</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L22" t="n">
-        <v>51.17702204982902</v>
+        <v>51.17702204982899</v>
       </c>
       <c r="M22" t="n">
-        <v>57.25018916738776</v>
+        <v>57.25018916738773</v>
       </c>
       <c r="N22" t="n">
-        <v>63.82580248394484</v>
+        <v>63.82580248394481</v>
       </c>
       <c r="O22" t="n">
-        <v>38.43518746545175</v>
+        <v>38.43518746545172</v>
       </c>
       <c r="P22" t="n">
-        <v>13.63342646305233</v>
+        <v>13.6334264630523</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>12.22463163546153</v>
       </c>
       <c r="J26" t="n">
-        <v>207.9166260955845</v>
+        <v>339.9861890938443</v>
       </c>
       <c r="K26" t="n">
-        <v>249.9451117671068</v>
+        <v>295.5817486965093</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611279</v>
+        <v>319.6521314611276</v>
       </c>
       <c r="M26" t="n">
-        <v>784.2094129550521</v>
+        <v>374.6884649886687</v>
       </c>
       <c r="N26" t="n">
-        <v>383.5486405241031</v>
+        <v>383.5486405241028</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644255</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P26" t="n">
-        <v>585.2533940942861</v>
+        <v>606.9072235799504</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1199747555647</v>
+        <v>392.0562616731652</v>
       </c>
       <c r="R26" t="n">
-        <v>25.38641559669318</v>
+        <v>140.5265689563793</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,22 +36756,22 @@
         <v>123.1303189036658</v>
       </c>
       <c r="L28" t="n">
-        <v>328.7918769510699</v>
+        <v>328.7918769510695</v>
       </c>
       <c r="M28" t="n">
-        <v>172.3903425270742</v>
+        <v>350.9000034365195</v>
       </c>
       <c r="N28" t="n">
-        <v>350.783672688093</v>
+        <v>178.9659558436309</v>
       </c>
       <c r="O28" t="n">
         <v>38.43518746545172</v>
       </c>
       <c r="P28" t="n">
-        <v>72.97352565325664</v>
+        <v>131.6245399660299</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.7729189209711</v>
+        <v>68.42996054321939</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546182</v>
+        <v>12.22463163546161</v>
       </c>
       <c r="J29" t="n">
-        <v>170.8895739217708</v>
+        <v>339.9861890938444</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9451117671068</v>
+        <v>398.4845763402561</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611279</v>
+        <v>319.6521314611277</v>
       </c>
       <c r="M29" t="n">
-        <v>374.688464988669</v>
+        <v>374.6884649886687</v>
       </c>
       <c r="N29" t="n">
-        <v>784.2094129550526</v>
+        <v>383.5486405241029</v>
       </c>
       <c r="O29" t="n">
-        <v>735.9208970271709</v>
+        <v>303.5556042513567</v>
       </c>
       <c r="P29" t="n">
-        <v>169.9683620487816</v>
+        <v>491.7670702202642</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1199747555647</v>
+        <v>406.4349654154692</v>
       </c>
       <c r="R29" t="n">
-        <v>93.53386245323999</v>
+        <v>74.81014908339694</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>110.26096761263</v>
       </c>
       <c r="K31" t="n">
-        <v>131.5267059186997</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L31" t="n">
-        <v>51.17702204982899</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M31" t="n">
-        <v>235.7598500768334</v>
+        <v>172.3903425270739</v>
       </c>
       <c r="N31" t="n">
-        <v>350.783672688093</v>
+        <v>178.965955843631</v>
       </c>
       <c r="O31" t="n">
-        <v>188.4840936324173</v>
+        <v>264.8421578390748</v>
       </c>
       <c r="P31" t="n">
-        <v>128.7735798227387</v>
+        <v>263.7801431367796</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.7729189209711</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.22463163546159</v>
       </c>
       <c r="J32" t="n">
-        <v>339.9861890938445</v>
+        <v>339.9861890938444</v>
       </c>
       <c r="K32" t="n">
-        <v>249.9451117671068</v>
+        <v>249.9451117671065</v>
       </c>
       <c r="L32" t="n">
-        <v>260.3659255538261</v>
+        <v>319.6521314611277</v>
       </c>
       <c r="M32" t="n">
-        <v>374.6884649886689</v>
+        <v>296.5722100454684</v>
       </c>
       <c r="N32" t="n">
-        <v>268.4084871644167</v>
+        <v>383.5486405241029</v>
       </c>
       <c r="O32" t="n">
-        <v>735.9208970271708</v>
+        <v>355.1207157644253</v>
       </c>
       <c r="P32" t="n">
-        <v>606.9072235799506</v>
+        <v>601.1412583505631</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1199747555646</v>
+        <v>406.4349654154691</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339712</v>
+        <v>140.5265689563794</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>110.2609676126302</v>
+        <v>76.62472628990666</v>
       </c>
       <c r="K34" t="n">
-        <v>131.5267059186996</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L34" t="n">
-        <v>193.1190725123371</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M34" t="n">
-        <v>350.9000034365198</v>
+        <v>221.1107113877962</v>
       </c>
       <c r="N34" t="n">
-        <v>63.82580248394481</v>
+        <v>235.6435193284066</v>
       </c>
       <c r="O34" t="n">
-        <v>153.5753408251381</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P34" t="n">
         <v>148.6399897770934</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.42996054321965</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>61.2911315341095</v>
       </c>
       <c r="J35" t="n">
-        <v>149.3590831432796</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K35" t="n">
         <v>134.8049584074204</v>
@@ -37318,13 +37318,13 @@
         <v>268.4084871644167</v>
       </c>
       <c r="O35" t="n">
-        <v>427.6195194099995</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P35" t="n">
         <v>169.9683620487816</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.97982139587825</v>
+        <v>298.9373094482281</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>117.0419663281254</v>
       </c>
       <c r="J38" t="n">
         <v>55.7494205620844</v>
@@ -37552,7 +37552,7 @@
         <v>259.5483116289826</v>
       </c>
       <c r="N38" t="n">
-        <v>427.6195194099995</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O38" t="n">
         <v>239.9805624047391</v>
@@ -37561,16 +37561,16 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.0174087367512</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>155.1319154835147</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.074737774818916</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J41" t="n">
         <v>55.7494205620844</v>
@@ -37792,7 +37792,7 @@
         <v>268.4084871644167</v>
       </c>
       <c r="O41" t="n">
-        <v>267.0878091622991</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P41" t="n">
         <v>169.9683620487816</v>
@@ -37801,13 +37801,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R41" t="n">
-        <v>179.627483776061</v>
+        <v>155.1319154835152</v>
       </c>
       <c r="S41" t="n">
-        <v>74.51388905283358</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.07473777481883</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J44" t="n">
         <v>55.7494205620844</v>
@@ -38020,7 +38020,7 @@
         <v>134.8049584074204</v>
       </c>
       <c r="L44" t="n">
-        <v>265.8031096355456</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M44" t="n">
         <v>259.5483116289826</v>
@@ -38032,19 +38032,19 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P44" t="n">
-        <v>389.9258501011318</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
         <v>78.97982139587825</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>80.61802643068188</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.07473777481883</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
